--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\ArpLite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\`ArpLite\ArpLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{984636EE-22FE-488B-BADE-A05F5BC1A5E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,17 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>0000000804100001</t>
+    <t>5555555555555555</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="00000000"/>
+    <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -67,55 +71,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -467,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:L1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,41 +445,41 @@
     <col min="13" max="13" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>LEFT(A1,8)</f>
-        <v>00000008</v>
+        <v>55555555</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>RIGHT(A1,8)</f>
-        <v>04100001</v>
+        <v>55555555</v>
       </c>
       <c r="E1" t="str">
         <f>HEX2BIN(LEFT(B1, 2),8)</f>
-        <v>00000000</v>
+        <v>01010101</v>
       </c>
       <c r="F1" t="str">
         <f>HEX2BIN(MID(B1, 3, 2),8)</f>
-        <v>00000000</v>
+        <v>01010101</v>
       </c>
       <c r="G1" t="str">
         <f>HEX2BIN(MID(B1, 5, 2),8)</f>
-        <v>00000000</v>
+        <v>01010101</v>
       </c>
       <c r="H1" t="str">
         <f>HEX2BIN(MID(B1, 7, 2),8)</f>
-        <v>00001000</v>
+        <v>01010101</v>
       </c>
       <c r="I1" t="str">
         <f>HEX2BIN(LEFT(C1, 2),8)</f>
-        <v>00000100</v>
+        <v>01010101</v>
       </c>
       <c r="J1" t="str">
         <f>HEX2BIN(MID(C1, 3, 2),8)</f>
-        <v>00010000</v>
+        <v>01010101</v>
       </c>
       <c r="K1" t="str">
         <f>HEX2BIN(MID(, 5, 2),8)</f>
@@ -525,37 +487,88 @@
       </c>
       <c r="L1" t="str">
         <f>HEX2BIN(MID(C1, 7, 2),8)</f>
-        <v>00000001</v>
+        <v>01010101</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>LEFT(A2,8)</f>
+        <v>aaaaaaaa</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>RIGHT(A2,8)</f>
+        <v>aaaaaaaa</v>
+      </c>
+      <c r="E2" t="str">
+        <f>HEX2BIN(LEFT(B2, 2),8)</f>
+        <v>10101010</v>
+      </c>
+      <c r="F2" t="str">
+        <f>HEX2BIN(MID(B2, 3, 2),8)</f>
+        <v>10101010</v>
+      </c>
+      <c r="G2" t="str">
+        <f>HEX2BIN(MID(B2, 5, 2),8)</f>
+        <v>10101010</v>
+      </c>
+      <c r="H2" t="str">
+        <f>HEX2BIN(MID(B2, 7, 2),8)</f>
+        <v>10101010</v>
+      </c>
+      <c r="I2" t="str">
+        <f>HEX2BIN(LEFT(C2, 2),8)</f>
+        <v>10101010</v>
+      </c>
+      <c r="J2" t="str">
+        <f>HEX2BIN(MID(C2, 3, 2),8)</f>
+        <v>10101010</v>
+      </c>
+      <c r="K2" t="str">
+        <f>HEX2BIN(MID(, 5, 2),8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="L2" t="str">
+        <f>HEX2BIN(MID(C2, 7, 2),8)</f>
+        <v>10101010</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:U8">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P2">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R2">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S2">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U2">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
